--- a/results/supplementary/FEEspinosadelAlbaST4.xlsx
+++ b/results/supplementary/FEEspinosadelAlbaST4.xlsx
@@ -165,21 +165,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,7 +522,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -544,15 +545,15 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
@@ -569,7 +570,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
@@ -589,7 +590,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -607,7 +608,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -699,12 +700,12 @@
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="15.75">
       <c r="A14" s="1" t="s">
@@ -724,58 +725,58 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="8">
         <v>-9.789E-5</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="8">
         <v>8.5470000000000007E-5</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="8">
         <v>-1.145</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="8">
         <v>0.25209999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="8">
         <v>-5.5649999999999998E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="8">
         <v>0.15629999999999999</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="8">
         <v>-0.35599999999999998</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="8">
         <v>0.7218</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="8">
         <v>1.9790000000000001E-4</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="8">
         <v>8.4259999999999996E-5</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="8">
         <v>2.3479999999999999</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="8">
         <v>1.89E-2</v>
       </c>
       <c r="G17" t="s">
@@ -786,10 +787,10 @@
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -798,16 +799,16 @@
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="8">
         <v>-5.4429999999999999E-5</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="8">
         <v>6.3689999999999995E-5</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="8">
         <v>-0.85499999999999998</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="8">
         <v>0.39300000000000002</v>
       </c>
     </row>
@@ -815,10 +816,10 @@
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -827,16 +828,16 @@
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="8">
         <v>-6.8590000000000006E-5</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="8">
         <v>1.27E-5</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="8">
         <v>-5.399</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="8">
         <v>6.6899999999999997E-8</v>
       </c>
       <c r="G21" t="s">

--- a/results/supplementary/FEEspinosadelAlbaST4.xlsx
+++ b/results/supplementary/FEEspinosadelAlbaST4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\OneDrive - Universidad de Oviedo\IMIB\Softwares\GitHub\Dianthus_PEG\results\supplementary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/espinosaclara_uniovi_es/Documents/IMIB/Softwares/GitHub/Dianthus_PEG/results/supplementary/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_15C23D69938C19DF724E4B0A806ADDABC8BAD469" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7917F63-DCEF-47D2-B3E4-21C685AF6422}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>Model formula specification</t>
   </si>
@@ -76,46 +66,29 @@
     <t>After ripened seeds treatment</t>
   </si>
   <si>
-    <t>Max bWP = 0 GLMM</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All subpopulations considered </t>
-  </si>
-  <si>
-    <t>Only subpopulations with both storage treatments</t>
-  </si>
-  <si>
-    <t>***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psib50 = germination base water potential </t>
+    <t>Full dataset (n= 24)</t>
+  </si>
+  <si>
+    <t>Subset only with subpopulations  in both storage treatments (n=12)</t>
+  </si>
+  <si>
+    <t>&lt;0.001</t>
+  </si>
+  <si>
+    <t>Supporting Table 4: Base water potential (bWP) model results (GLMM). Psib50 = germination base water potential from seedr package calculations.</t>
+  </si>
+  <si>
+    <t>Functional intraspecific variation in the base water potential for seed germination along soil microclimatic gradients. Espinosa del Alba, C., Cruz-Tejada, D., Jiménez-Alfaro, B., and E. Fernández-Pascual. (2025). Functional Ecology.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,14 +99,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -165,22 +136,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,348 +497,365 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A23" sqref="A23:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-1.284E-4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7.6210000000000004E-5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-1.6850000000000001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>9.1899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-0.1263</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.18060000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-0.69899999999999995</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.4844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2.2550000000000001E-4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>9.3700000000000001E-5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.407</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.61E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8.4029999999999993E-5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6.8629999999999999E-5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.224</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.2208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-1.025E-4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4.7490000000000001E-5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-2.1589999999999998</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3.0849999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-9.789E-5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>8.5470000000000007E-5</v>
+      </c>
+      <c r="E16" s="4">
+        <v>-1.145</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.25209999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-5.5649999999999998E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.15629999999999999</v>
+      </c>
+      <c r="E17" s="4">
+        <v>-0.35599999999999998</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.7218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.9790000000000001E-4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>8.4259999999999996E-5</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2.3479999999999999</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1.89E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-5.4429999999999999E-5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>6.3689999999999995E-5</v>
+      </c>
+      <c r="E20" s="4">
+        <v>-0.85499999999999998</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>-6.8590000000000006E-5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.27E-5</v>
+      </c>
+      <c r="E22" s="4">
+        <v>-5.399</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="15">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-1.284E-4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7.6210000000000004E-5</v>
-      </c>
-      <c r="E4">
-        <v>-1.6850000000000001</v>
-      </c>
-      <c r="F4">
-        <v>9.1899999999999996E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5"/>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-0.1263</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.18060000000000001</v>
-      </c>
-      <c r="E5">
-        <v>-0.69899999999999995</v>
-      </c>
-      <c r="F5">
-        <v>0.4844</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5"/>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2.2550000000000001E-4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>9.3700000000000001E-5</v>
-      </c>
-      <c r="E6">
-        <v>2.407</v>
-      </c>
-      <c r="F6">
-        <v>1.61E-2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8.4029999999999993E-5</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6.8629999999999999E-5</v>
-      </c>
-      <c r="E8">
-        <v>1.224</v>
-      </c>
-      <c r="F8">
-        <v>0.2208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>-1.025E-4</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4.7490000000000001E-5</v>
-      </c>
-      <c r="E10">
-        <v>-2.1589999999999998</v>
-      </c>
-      <c r="F10">
-        <v>3.0849999999999999E-2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="8">
-        <v>-9.789E-5</v>
-      </c>
-      <c r="D15" s="8">
-        <v>8.5470000000000007E-5</v>
-      </c>
-      <c r="E15" s="8">
-        <v>-1.145</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0.25209999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="5"/>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="8">
-        <v>-5.5649999999999998E-2</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0.15629999999999999</v>
-      </c>
-      <c r="E16" s="8">
-        <v>-0.35599999999999998</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0.7218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5"/>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1.9790000000000001E-4</v>
-      </c>
-      <c r="D17" s="8">
-        <v>8.4259999999999996E-5</v>
-      </c>
-      <c r="E17" s="8">
-        <v>2.3479999999999999</v>
-      </c>
-      <c r="F17" s="8">
-        <v>1.89E-2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75">
-      <c r="A18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="8">
-        <v>-5.4429999999999999E-5</v>
-      </c>
-      <c r="D19" s="8">
-        <v>6.3689999999999995E-5</v>
-      </c>
-      <c r="E19" s="8">
-        <v>-0.85499999999999998</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0.39300000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75">
-      <c r="A20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="8">
-        <v>-6.8590000000000006E-5</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1.27E-5</v>
-      </c>
-      <c r="E21" s="8">
-        <v>-5.399</v>
-      </c>
-      <c r="F21" s="8">
-        <v>6.6899999999999997E-8</v>
-      </c>
-      <c r="G21" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A15:A17"/>
+  <mergeCells count="8">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
